--- a/data/trans_orig/P21D1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>34806</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25427</v>
+        <v>24227</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48021</v>
+        <v>46176</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2255909427225065</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1648041508951581</v>
+        <v>0.1570223429741213</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3112433979321279</v>
+        <v>0.2992842417892858</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -762,19 +762,19 @@
         <v>21714</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14490</v>
+        <v>15245</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31415</v>
+        <v>31558</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.156545652883561</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1044640955199234</v>
+        <v>0.1099046896778042</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2264797473474833</v>
+        <v>0.2275149346299616</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -783,19 +783,19 @@
         <v>56520</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44333</v>
+        <v>43332</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69346</v>
+        <v>71661</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1929038417552135</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.151307872459855</v>
+        <v>0.1478922433140883</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2366791596144212</v>
+        <v>0.2445814616895859</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>119481</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>106266</v>
+        <v>108111</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>128860</v>
+        <v>130060</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7744090572774935</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6887566020678721</v>
+        <v>0.7007157582107141</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8351958491048419</v>
+        <v>0.8429776570258787</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>198</v>
@@ -833,19 +833,19 @@
         <v>116497</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>106603</v>
+        <v>106438</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>123635</v>
+        <v>122918</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8398673063411602</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7685388459840742</v>
+        <v>0.7673449695621687</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8913237135066694</v>
+        <v>0.886156270981667</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>316</v>
@@ -854,19 +854,19 @@
         <v>235978</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>223122</v>
+        <v>220611</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>248612</v>
+        <v>249441</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8053979980332958</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7615185226615385</v>
+        <v>0.752947205274463</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8485165256236945</v>
+        <v>0.8513458929729071</v>
       </c>
     </row>
     <row r="6">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2559</v>
+        <v>2511</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003587040775278905</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01844608846396239</v>
+        <v>0.01810445167131139</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>2480</v>
+        <v>3084</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001698160211490671</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.008464622484225132</v>
+        <v>0.01052722941840892</v>
       </c>
     </row>
     <row r="7">
@@ -1068,19 +1068,19 @@
         <v>55150</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>40085</v>
+        <v>39866</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>75778</v>
+        <v>75836</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2487246353536544</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.180780186913144</v>
+        <v>0.1797937206570508</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3417532607230241</v>
+        <v>0.342016710030306</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>40</v>
@@ -1089,19 +1089,19 @@
         <v>35965</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>25667</v>
+        <v>26455</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>48665</v>
+        <v>50681</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1423126146711703</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.101562988910586</v>
+        <v>0.1046819067898567</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1925674488860483</v>
+        <v>0.200543814906931</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>73</v>
@@ -1110,19 +1110,19 @@
         <v>91115</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>72504</v>
+        <v>73545</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>114486</v>
+        <v>116097</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1920439612795486</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.152817759143522</v>
+        <v>0.1550109994053958</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2413043310392292</v>
+        <v>0.24469917799599</v>
       </c>
     </row>
     <row r="10">
@@ -1139,19 +1139,19 @@
         <v>160321</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>140549</v>
+        <v>139054</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>175505</v>
+        <v>174942</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7230387386102596</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6338700300111615</v>
+        <v>0.6271274682606213</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7915192921421507</v>
+        <v>0.7889779549131417</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>276</v>
@@ -1160,19 +1160,19 @@
         <v>209663</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>196118</v>
+        <v>194179</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>220628</v>
+        <v>219551</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8296376906175531</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7760395866092229</v>
+        <v>0.7683687135094706</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8730274525948807</v>
+        <v>0.8687649590608354</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>398</v>
@@ -1181,19 +1181,19 @@
         <v>369984</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>344442</v>
+        <v>344760</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>388204</v>
+        <v>387543</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7798189822013035</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7259839145166125</v>
+        <v>0.7266554572339818</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8182220216834359</v>
+        <v>0.8168287258440887</v>
       </c>
     </row>
     <row r="11">
@@ -1210,19 +1210,19 @@
         <v>6261</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2195</v>
+        <v>2305</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14536</v>
+        <v>13669</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.02823662603608604</v>
+        <v>0.02823662603608603</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009897568602924411</v>
+        <v>0.01039691541798625</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06555710197022287</v>
+        <v>0.06164675251763227</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -1231,19 +1231,19 @@
         <v>7089</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3620</v>
+        <v>3754</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12610</v>
+        <v>13397</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02804969471127652</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01432606156320706</v>
+        <v>0.01485615630595281</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04989692773474901</v>
+        <v>0.05301327587721173</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -1252,19 +1252,19 @@
         <v>13350</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7370</v>
+        <v>7096</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21549</v>
+        <v>22165</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02813705651914787</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01553285874688416</v>
+        <v>0.01495718617879616</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04541831149996241</v>
+        <v>0.04671712913041829</v>
       </c>
     </row>
     <row r="12">
@@ -1403,19 +1403,19 @@
         <v>14105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8852</v>
+        <v>8700</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21583</v>
+        <v>21328</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1515779494135303</v>
+        <v>0.1515779494135304</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09512392162845064</v>
+        <v>0.09349701020900379</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2319428798279188</v>
+        <v>0.229203236956252</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1424,19 +1424,19 @@
         <v>16565</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10627</v>
+        <v>10856</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23448</v>
+        <v>24062</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1131933581614455</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07261700632458186</v>
+        <v>0.07417900402715204</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1602256803533248</v>
+        <v>0.1644261879933393</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>38</v>
@@ -1445,19 +1445,19 @@
         <v>30670</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21471</v>
+        <v>22689</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>40950</v>
+        <v>40817</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1281135010624068</v>
+        <v>0.1281135010624069</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08968758691863175</v>
+        <v>0.09477477852400559</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1710567774332878</v>
+        <v>0.1705005735054944</v>
       </c>
     </row>
     <row r="15">
@@ -1474,19 +1474,19 @@
         <v>76821</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>69147</v>
+        <v>69305</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>82714</v>
+        <v>82790</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.8255519067261303</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7430819495570616</v>
+        <v>0.7447853017320651</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8888784499357094</v>
+        <v>0.8896990405157649</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>195</v>
@@ -1495,19 +1495,19 @@
         <v>126050</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>118037</v>
+        <v>118182</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>132141</v>
+        <v>132473</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.8613356655724088</v>
+        <v>0.8613356655724087</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8065809866331332</v>
+        <v>0.8075715003763057</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9029618499729675</v>
+        <v>0.9052264239621772</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>290</v>
@@ -1516,19 +1516,19 @@
         <v>202871</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>191960</v>
+        <v>191949</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>212645</v>
+        <v>211100</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.8474264697700172</v>
+        <v>0.8474264697700173</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8018499136953803</v>
+        <v>0.8018062139358584</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8882578252933102</v>
+        <v>0.881801997101896</v>
       </c>
     </row>
     <row r="16">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7681</v>
+        <v>6865</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02287014386033923</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08254064713838159</v>
+        <v>0.0737743842310794</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1566,19 +1566,19 @@
         <v>3727</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1265</v>
+        <v>1293</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7612</v>
+        <v>8181</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02547097626614559</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008640722327066596</v>
+        <v>0.008838865648968621</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05201745235582914</v>
+        <v>0.05590627834699904</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1587,19 +1587,19 @@
         <v>5856</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2494</v>
+        <v>2684</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11555</v>
+        <v>11341</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02446002916757581</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0104175610781519</v>
+        <v>0.01121301904770526</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04826670140555425</v>
+        <v>0.04737366988918523</v>
       </c>
     </row>
     <row r="17">
@@ -1738,19 +1738,19 @@
         <v>64920</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>49111</v>
+        <v>47805</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>83965</v>
+        <v>84190</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3721174635439771</v>
+        <v>0.3721174635439772</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2815016503842748</v>
+        <v>0.2740170254710044</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4812860632936017</v>
+        <v>0.4825736818068097</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -1759,19 +1759,19 @@
         <v>54846</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42257</v>
+        <v>41911</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69360</v>
+        <v>69366</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2721801404202638</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2097030415702695</v>
+        <v>0.207987655165393</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3442056209485643</v>
+        <v>0.3442338620447913</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>105</v>
@@ -1780,19 +1780,19 @@
         <v>119766</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>98958</v>
+        <v>99870</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>143930</v>
+        <v>143309</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3185539267197129</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2632080993979737</v>
+        <v>0.2656355028224643</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3828254603433981</v>
+        <v>0.3811737267609721</v>
       </c>
     </row>
     <row r="20">
@@ -1809,19 +1809,19 @@
         <v>99092</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>80752</v>
+        <v>80381</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>116168</v>
+        <v>116689</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5679924575147447</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4628671621768756</v>
+        <v>0.4607401217995709</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6658715211431094</v>
+        <v>0.6688555278375863</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>207</v>
@@ -1830,19 +1830,19 @@
         <v>139327</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>124998</v>
+        <v>124560</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>152273</v>
+        <v>152055</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6914225818579397</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.620314104286423</v>
+        <v>0.618136897222508</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7556648701094579</v>
+        <v>0.7545865516950143</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>291</v>
@@ -1851,19 +1851,19 @@
         <v>238419</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>212123</v>
+        <v>215059</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>259841</v>
+        <v>259469</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6341474615095584</v>
+        <v>0.6341474615095585</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5642052337973913</v>
+        <v>0.5720153704390972</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.691125722487945</v>
+        <v>0.6901352910030336</v>
       </c>
     </row>
     <row r="21">
@@ -1880,19 +1880,19 @@
         <v>10448</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3778</v>
+        <v>3666</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>27734</v>
+        <v>26425</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0598900789412781</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02165487985900192</v>
+        <v>0.02101554157207064</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1589720162234378</v>
+        <v>0.1514674909270731</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -1901,19 +1901,19 @@
         <v>7334</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3232</v>
+        <v>2998</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14903</v>
+        <v>15927</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03639727772179643</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01604059680345415</v>
+        <v>0.01487875760847248</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07395562314613618</v>
+        <v>0.07903914706395579</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>13</v>
@@ -1922,19 +1922,19 @@
         <v>17783</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>8648</v>
+        <v>9454</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>33918</v>
+        <v>34126</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04729861177072868</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02300298748152226</v>
+        <v>0.02514692505961466</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09021396752337885</v>
+        <v>0.09076730732850589</v>
       </c>
     </row>
     <row r="22">
@@ -2073,19 +2073,19 @@
         <v>30874</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>22166</v>
+        <v>21901</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>39522</v>
+        <v>39706</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3657175838345025</v>
+        <v>0.3657175838345024</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2625709213731856</v>
+        <v>0.2594298971006735</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4681505413027768</v>
+        <v>0.470328994643993</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -2094,19 +2094,19 @@
         <v>13131</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8299</v>
+        <v>8576</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20165</v>
+        <v>19954</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1654044789495205</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1045449231793323</v>
+        <v>0.1080249142024182</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2540160707373846</v>
+        <v>0.2513526385299186</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>54</v>
@@ -2115,19 +2115,19 @@
         <v>44005</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>32953</v>
+        <v>34348</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>55437</v>
+        <v>55716</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2686397982498083</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2011720097065735</v>
+        <v>0.2096852356403242</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3384324730142439</v>
+        <v>0.3401319220697399</v>
       </c>
     </row>
     <row r="25">
@@ -2144,19 +2144,19 @@
         <v>50868</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41551</v>
+        <v>41210</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>58979</v>
+        <v>58744</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.602550601718517</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.492191673368073</v>
+        <v>0.4881467029255679</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6986335189491468</v>
+        <v>0.6958404021086715</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>134</v>
@@ -2165,19 +2165,19 @@
         <v>61650</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>54218</v>
+        <v>54401</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>67498</v>
+        <v>67664</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7765977123623548</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6829748445071623</v>
+        <v>0.6852849178504022</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.850267394134583</v>
+        <v>0.8523558987448409</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>207</v>
@@ -2186,19 +2186,19 @@
         <v>112518</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>101422</v>
+        <v>100858</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>123840</v>
+        <v>122080</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.6868990925395229</v>
+        <v>0.6868990925395226</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6191562892990635</v>
+        <v>0.615716529844367</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7560176741261896</v>
+        <v>0.7452717644853177</v>
       </c>
     </row>
     <row r="26">
@@ -2215,19 +2215,19 @@
         <v>2679</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>557</v>
+        <v>517</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8083</v>
+        <v>7971</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03173181444698039</v>
+        <v>0.03173181444698038</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006599188472899292</v>
+        <v>0.006120565218737942</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09574895132805132</v>
+        <v>0.09441836430821213</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -2236,19 +2236,19 @@
         <v>4604</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1605</v>
+        <v>1781</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12090</v>
+        <v>11715</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05799780868812469</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02022373857554283</v>
+        <v>0.02243435750851649</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1522990507895314</v>
+        <v>0.1475780368346529</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -2257,19 +2257,19 @@
         <v>7283</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3572</v>
+        <v>3314</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>15173</v>
+        <v>14915</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04446110921066905</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02180474927431791</v>
+        <v>0.02023397142468544</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09262984095584131</v>
+        <v>0.09105383340096455</v>
       </c>
     </row>
     <row r="27">
@@ -2408,19 +2408,19 @@
         <v>7890</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3906</v>
+        <v>3958</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13967</v>
+        <v>14389</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.06219847802626153</v>
+        <v>0.06219847802626152</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0307941605775337</v>
+        <v>0.03120369259081982</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1101098066639267</v>
+        <v>0.1134343370663806</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -2429,19 +2429,19 @@
         <v>3927</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1677</v>
+        <v>1528</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8030</v>
+        <v>9037</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.03453759046253859</v>
+        <v>0.03453759046253858</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0147442486745698</v>
+        <v>0.01344039961832488</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07061379085844707</v>
+        <v>0.07946730368996688</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>16</v>
@@ -2450,19 +2450,19 @@
         <v>11817</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6924</v>
+        <v>7065</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>18436</v>
+        <v>18324</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04912291340829195</v>
+        <v>0.04912291340829196</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02878064716033146</v>
+        <v>0.02936874228910523</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07663855776856278</v>
+        <v>0.07617303925719023</v>
       </c>
     </row>
     <row r="30">
@@ -2479,19 +2479,19 @@
         <v>118956</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>112879</v>
+        <v>112457</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>122940</v>
+        <v>122888</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9378015219737387</v>
+        <v>0.9378015219737383</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8898901933360734</v>
+        <v>0.8865656629336194</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9692058394224666</v>
+        <v>0.9687963074091803</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>194</v>
@@ -2500,19 +2500,19 @@
         <v>109789</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>105686</v>
+        <v>104679</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>112039</v>
+        <v>112188</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.9654624095374613</v>
+        <v>0.9654624095374612</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9293862091415529</v>
+        <v>0.9205326963100331</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9852557513254301</v>
+        <v>0.986559600381675</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>361</v>
@@ -2521,19 +2521,19 @@
         <v>228745</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>222126</v>
+        <v>222238</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>233638</v>
+        <v>233497</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.950877086591708</v>
+        <v>0.9508770865917079</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9233614422314371</v>
+        <v>0.9238269607428097</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9712193528396685</v>
+        <v>0.9706312577108946</v>
       </c>
     </row>
     <row r="31">
@@ -2719,19 +2719,19 @@
         <v>78553</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>60356</v>
+        <v>61020</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>98362</v>
+        <v>99217</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2226522582632978</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1710744538227421</v>
+        <v>0.1729543567437448</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2787990786921749</v>
+        <v>0.2812225076450307</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>63</v>
@@ -2740,19 +2740,19 @@
         <v>52714</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>40247</v>
+        <v>41952</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>66983</v>
+        <v>68261</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1479993434009057</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1129974353795364</v>
+        <v>0.1177840981828641</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1880589744320384</v>
+        <v>0.1916477959049863</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>120</v>
@@ -2761,19 +2761,19 @@
         <v>131268</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>109067</v>
+        <v>107563</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>153240</v>
+        <v>155852</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.1851482619861273</v>
+        <v>0.1851482619861272</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1538350853610761</v>
+        <v>0.1517135261571655</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2161400503185822</v>
+        <v>0.219823469283228</v>
       </c>
     </row>
     <row r="35">
@@ -2790,19 +2790,19 @@
         <v>266111</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>243851</v>
+        <v>245474</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>283906</v>
+        <v>284681</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.7542685128889893</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.6911729052394688</v>
+        <v>0.6957747303862325</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.8047050823111843</v>
+        <v>0.8069039195070106</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>365</v>
@@ -2811,19 +2811,19 @@
         <v>296592</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>282517</v>
+        <v>281426</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>308924</v>
+        <v>308072</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.8327055217884146</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.7931889754134935</v>
+        <v>0.7901262456730331</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.867326943650426</v>
+        <v>0.8649353662169667</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>587</v>
@@ -2832,19 +2832,19 @@
         <v>562703</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>539437</v>
+        <v>538095</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>586766</v>
+        <v>586004</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.7936735554808141</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.7608575943247419</v>
+        <v>0.7589640445087293</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.8276132827657018</v>
+        <v>0.82653882733567</v>
       </c>
     </row>
     <row r="36">
@@ -2861,19 +2861,19 @@
         <v>8143</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3277</v>
+        <v>3119</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>19216</v>
+        <v>20594</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.02307922884771299</v>
+        <v>0.023079228847713</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.009287933242778445</v>
+        <v>0.008840186978352874</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05446640936627432</v>
+        <v>0.05837102458954413</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>6</v>
@@ -2882,19 +2882,19 @@
         <v>5422</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2083</v>
+        <v>2124</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>11674</v>
+        <v>13156</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01522163183415183</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.005848038078899338</v>
+        <v>0.005963741585024248</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03277604745920788</v>
+        <v>0.03693557051327888</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>12</v>
@@ -2903,19 +2903,19 @@
         <v>13564</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>7115</v>
+        <v>7003</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>25763</v>
+        <v>25556</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01913174347909331</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01003516222237704</v>
+        <v>0.009877497072775703</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03633773873527282</v>
+        <v>0.03604544120089843</v>
       </c>
     </row>
     <row r="37">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>5665</v>
+        <v>5119</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.004073502976527804</v>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01590478445652168</v>
+        <v>0.01437059767714469</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4738</v>
+        <v>4529</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.002046439053965248</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.006683132696140581</v>
+        <v>0.006388268501910685</v>
       </c>
     </row>
     <row r="38">
@@ -3070,19 +3070,19 @@
         <v>133132</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>112635</v>
+        <v>113709</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>151953</v>
+        <v>155706</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3691265051761817</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3122972229141973</v>
+        <v>0.3152750642540739</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4213120272469972</v>
+        <v>0.4317170857429107</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>127</v>
@@ -3091,19 +3091,19 @@
         <v>114101</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>98642</v>
+        <v>97435</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>133642</v>
+        <v>132715</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2794007974253387</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2415445388069604</v>
+        <v>0.2385897700212948</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3272491075583807</v>
+        <v>0.3249791184298486</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>231</v>
@@ -3112,19 +3112,19 @@
         <v>247233</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>222512</v>
+        <v>220455</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>275863</v>
+        <v>274700</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.3214803236014613</v>
+        <v>0.3214803236014612</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2893354341319764</v>
+        <v>0.2866598415414127</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.3587082110583563</v>
+        <v>0.3571955227207864</v>
       </c>
     </row>
     <row r="40">
@@ -3141,19 +3141,19 @@
         <v>226375</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>207899</v>
+        <v>203557</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>247130</v>
+        <v>246411</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.6276567368659469</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5764292564625264</v>
+        <v>0.5643914601713028</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.6852014198796643</v>
+        <v>0.6832103370654358</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>383</v>
@@ -3162,19 +3162,19 @@
         <v>288859</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>268407</v>
+        <v>269941</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>304212</v>
+        <v>305696</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.7073310761404451</v>
+        <v>0.7073310761404449</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.6572498033176056</v>
+        <v>0.6610068386692479</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.744926512412395</v>
+        <v>0.7485586989032241</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>611</v>
@@ -3183,19 +3183,19 @@
         <v>515234</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>486722</v>
+        <v>487560</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>538941</v>
+        <v>542875</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.6699654366920895</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.6328912252345353</v>
+        <v>0.6339803045770297</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.7007919743267286</v>
+        <v>0.7059064892143304</v>
       </c>
     </row>
     <row r="41">
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5929</v>
+        <v>5832</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.003216757957871292</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0164399707632094</v>
+        <v>0.0161698536479364</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>7</v>
@@ -3233,19 +3233,19 @@
         <v>5418</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2350</v>
+        <v>2237</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>11667</v>
+        <v>10241</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01326812643421627</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.005753767234370709</v>
+        <v>0.005476645493387425</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0285689052353506</v>
+        <v>0.02507666766280843</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>8</v>
@@ -3254,19 +3254,19 @@
         <v>6579</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2945</v>
+        <v>2984</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>12519</v>
+        <v>12474</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.00855423970644914</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.003829772570397298</v>
+        <v>0.003880589092630338</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01627834235175816</v>
+        <v>0.01621971032336563</v>
       </c>
     </row>
     <row r="42">
@@ -3405,19 +3405,19 @@
         <v>419429</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>381944</v>
+        <v>376510</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>461970</v>
+        <v>460341</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2674465289178282</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2435443972370072</v>
+        <v>0.2400790102335602</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2945721609668509</v>
+        <v>0.293533490076435</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>377</v>
@@ -3426,19 +3426,19 @@
         <v>312965</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>284244</v>
+        <v>284165</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>346049</v>
+        <v>345780</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.184429202178375</v>
+        <v>0.1844292021783751</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.167504514437911</v>
+        <v>0.1674578575921206</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2039258294824525</v>
+        <v>0.2037672083616757</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>706</v>
@@ -3447,19 +3447,19 @@
         <v>732394</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>679175</v>
+        <v>684462</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>781082</v>
+        <v>784942</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.2243022632762941</v>
+        <v>0.224302263276294</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2080035175207635</v>
+        <v>0.2096226842049896</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2392134547576317</v>
+        <v>0.240395422453235</v>
       </c>
     </row>
     <row r="45">
@@ -3476,19 +3476,19 @@
         <v>1118025</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>1073770</v>
+        <v>1077860</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>1158617</v>
+        <v>1162882</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.7129018885138025</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.6846828525331358</v>
+        <v>0.6872907153385354</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.7387850251487478</v>
+        <v>0.7415041195595438</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>1952</v>
@@ -3497,19 +3497,19 @@
         <v>1348428</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>1313004</v>
+        <v>1315557</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>1378575</v>
+        <v>1377557</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.7946253116763022</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.7737501277238397</v>
+        <v>0.7752544454397421</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.8123908838737494</v>
+        <v>0.8117908777202378</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>3061</v>
@@ -3518,19 +3518,19 @@
         <v>2466454</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>2416613</v>
+        <v>2411780</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>2524129</v>
+        <v>2519249</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.7553737099580691</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.7401095440479488</v>
+        <v>0.7386295181432686</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.7730373996097329</v>
+        <v>0.771542745746402</v>
       </c>
     </row>
     <row r="46">
@@ -3547,19 +3547,19 @@
         <v>30819</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>18828</v>
+        <v>18438</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>48042</v>
+        <v>48785</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01965158256836929</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01200541340545079</v>
+        <v>0.01175682815705855</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03063362281566239</v>
+        <v>0.03110719371033346</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>45</v>
@@ -3568,19 +3568,19 @@
         <v>34092</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>24214</v>
+        <v>24486</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>47589</v>
+        <v>45627</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.0200904758957751</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01426902084943711</v>
+        <v>0.01442935214745227</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02804429690789336</v>
+        <v>0.02688786111318775</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>67</v>
@@ -3589,19 +3589,19 @@
         <v>64911</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>49998</v>
+        <v>48716</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>85398</v>
+        <v>86941</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01987967628144827</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01531248207363134</v>
+        <v>0.0149197724659703</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02615387228032988</v>
+        <v>0.02662655174481654</v>
       </c>
     </row>
     <row r="47">
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>5147</v>
+        <v>4521</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.0008550102495476257</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.003032907023771108</v>
+        <v>0.002664166611066165</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>2</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>5706</v>
+        <v>4462</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.0004443504841885753</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.00174751727754155</v>
+        <v>0.001366514325174383</v>
       </c>
     </row>
     <row r="48">
